--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ptgs2</t>
   </si>
   <si>
     <t>Cav1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>23.479652594111</v>
+        <v>474.5132896666667</v>
       </c>
       <c r="H2">
-        <v>23.479652594111</v>
+        <v>1423.539869</v>
       </c>
       <c r="I2">
-        <v>0.4316499003634585</v>
+        <v>0.8843028913916159</v>
       </c>
       <c r="J2">
-        <v>0.4316499003634585</v>
+        <v>0.8843028913916158</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N2">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O2">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P2">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q2">
-        <v>1903.939331319466</v>
+        <v>232526.627557509</v>
       </c>
       <c r="R2">
-        <v>1903.939331319466</v>
+        <v>2092739.648017581</v>
       </c>
       <c r="S2">
-        <v>0.1094423244109109</v>
+        <v>0.5912819668619433</v>
       </c>
       <c r="T2">
-        <v>0.1094423244109109</v>
+        <v>0.5912819668619433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>23.479652594111</v>
+        <v>474.5132896666667</v>
       </c>
       <c r="H3">
-        <v>23.479652594111</v>
+        <v>1423.539869</v>
       </c>
       <c r="I3">
-        <v>0.4316499003634585</v>
+        <v>0.8843028913916159</v>
       </c>
       <c r="J3">
-        <v>0.4316499003634585</v>
+        <v>0.8843028913916158</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N3">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O3">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P3">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q3">
-        <v>1416.542038614807</v>
+        <v>29796.14352506064</v>
       </c>
       <c r="R3">
-        <v>1416.542038614807</v>
+        <v>268165.2917255457</v>
       </c>
       <c r="S3">
-        <v>0.08142573178754403</v>
+        <v>0.07576733268554935</v>
       </c>
       <c r="T3">
-        <v>0.08142573178754403</v>
+        <v>0.07576733268554935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>23.479652594111</v>
+        <v>474.5132896666667</v>
       </c>
       <c r="H4">
-        <v>23.479652594111</v>
+        <v>1423.539869</v>
       </c>
       <c r="I4">
-        <v>0.4316499003634585</v>
+        <v>0.8843028913916159</v>
       </c>
       <c r="J4">
-        <v>0.4316499003634585</v>
+        <v>0.8843028913916158</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N4">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O4">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P4">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q4">
-        <v>13.96396703746745</v>
+        <v>283.6567686922917</v>
       </c>
       <c r="R4">
-        <v>13.96396703746745</v>
+        <v>2552.910918230626</v>
       </c>
       <c r="S4">
-        <v>0.0008026773676231973</v>
+        <v>0.0007212986051010455</v>
       </c>
       <c r="T4">
-        <v>0.0008026773676231973</v>
+        <v>0.0007212986051010455</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>23.479652594111</v>
+        <v>474.5132896666667</v>
       </c>
       <c r="H5">
-        <v>23.479652594111</v>
+        <v>1423.539869</v>
       </c>
       <c r="I5">
-        <v>0.4316499003634585</v>
+        <v>0.8843028913916159</v>
       </c>
       <c r="J5">
-        <v>0.4316499003634585</v>
+        <v>0.8843028913916158</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N5">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O5">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P5">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q5">
-        <v>4174.854443399007</v>
+        <v>85153.15319250956</v>
       </c>
       <c r="R5">
-        <v>4174.854443399007</v>
+        <v>766378.3787325862</v>
       </c>
       <c r="S5">
-        <v>0.2399791667973804</v>
+        <v>0.2165322932390221</v>
       </c>
       <c r="T5">
-        <v>0.2399791667973804</v>
+        <v>0.2165322932390221</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.9154777518954</v>
+        <v>23.866129</v>
       </c>
       <c r="H6">
-        <v>30.9154777518954</v>
+        <v>71.598387</v>
       </c>
       <c r="I6">
-        <v>0.5683500996365415</v>
+        <v>0.04447691422057101</v>
       </c>
       <c r="J6">
-        <v>0.5683500996365415</v>
+        <v>0.044476914220571</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N6">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O6">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P6">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q6">
-        <v>2506.902255152135</v>
+        <v>11695.1634655393</v>
       </c>
       <c r="R6">
-        <v>2506.902255152135</v>
+        <v>105256.4711898537</v>
       </c>
       <c r="S6">
-        <v>0.1441018657273426</v>
+        <v>0.02973912850030799</v>
       </c>
       <c r="T6">
-        <v>0.1441018657273426</v>
+        <v>0.02973912850030799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.9154777518954</v>
+        <v>23.866129</v>
       </c>
       <c r="H7">
-        <v>30.9154777518954</v>
+        <v>71.598387</v>
       </c>
       <c r="I7">
-        <v>0.5683500996365415</v>
+        <v>0.04447691422057101</v>
       </c>
       <c r="J7">
-        <v>0.5683500996365415</v>
+        <v>0.044476914220571</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N7">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O7">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P7">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q7">
-        <v>1865.149993335272</v>
+        <v>1498.627373684633</v>
       </c>
       <c r="R7">
-        <v>1865.149993335272</v>
+        <v>13487.64636316169</v>
       </c>
       <c r="S7">
-        <v>0.1072126339782811</v>
+        <v>0.003810795135220559</v>
       </c>
       <c r="T7">
-        <v>0.1072126339782811</v>
+        <v>0.003810795135220559</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.9154777518954</v>
+        <v>23.866129</v>
       </c>
       <c r="H8">
-        <v>30.9154777518954</v>
+        <v>71.598387</v>
       </c>
       <c r="I8">
-        <v>0.5683500996365415</v>
+        <v>0.04447691422057101</v>
       </c>
       <c r="J8">
-        <v>0.5683500996365415</v>
+        <v>0.044476914220571</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N8">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O8">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P8">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q8">
-        <v>18.38624786055405</v>
+        <v>14.26680596888867</v>
       </c>
       <c r="R8">
-        <v>18.38624786055405</v>
+        <v>128.401253719998</v>
       </c>
       <c r="S8">
-        <v>0.001056879108463849</v>
+        <v>3.627844768890335E-05</v>
       </c>
       <c r="T8">
-        <v>0.001056879108463849</v>
+        <v>3.627844768890335E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>23.866129</v>
+      </c>
+      <c r="H9">
+        <v>71.598387</v>
+      </c>
+      <c r="I9">
+        <v>0.04447691422057101</v>
+      </c>
+      <c r="J9">
+        <v>0.044476914220571</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>179.453674</v>
+      </c>
+      <c r="N9">
+        <v>538.361022</v>
+      </c>
+      <c r="O9">
+        <v>0.2448621341701915</v>
+      </c>
+      <c r="P9">
+        <v>0.2448621341701916</v>
+      </c>
+      <c r="Q9">
+        <v>4282.864533207946</v>
+      </c>
+      <c r="R9">
+        <v>38545.78079887152</v>
+      </c>
+      <c r="S9">
+        <v>0.01089071213735356</v>
+      </c>
+      <c r="T9">
+        <v>0.01089071213735356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>38.06207066666666</v>
+      </c>
+      <c r="H10">
+        <v>114.186212</v>
+      </c>
+      <c r="I10">
+        <v>0.07093246885989114</v>
+      </c>
+      <c r="J10">
+        <v>0.07093246885989114</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>490.031855</v>
+      </c>
+      <c r="N10">
+        <v>1470.095565</v>
+      </c>
+      <c r="O10">
+        <v>0.6686419015677429</v>
+      </c>
+      <c r="P10">
+        <v>0.6686419015677431</v>
+      </c>
+      <c r="Q10">
+        <v>18651.62709392775</v>
+      </c>
+      <c r="R10">
+        <v>167864.6438453498</v>
+      </c>
+      <c r="S10">
+        <v>0.04742842086137233</v>
+      </c>
+      <c r="T10">
+        <v>0.04742842086137233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>38.06207066666666</v>
+      </c>
+      <c r="H11">
+        <v>114.186212</v>
+      </c>
+      <c r="I11">
+        <v>0.07093246885989114</v>
+      </c>
+      <c r="J11">
+        <v>0.07093246885989114</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>62.79306433333334</v>
+      </c>
+      <c r="N11">
+        <v>188.379193</v>
+      </c>
+      <c r="O11">
+        <v>0.0856802950924601</v>
+      </c>
+      <c r="P11">
+        <v>0.08568029509246011</v>
+      </c>
+      <c r="Q11">
+        <v>2390.03405203188</v>
+      </c>
+      <c r="R11">
+        <v>21510.30646828692</v>
+      </c>
+      <c r="S11">
+        <v>0.00607751486355221</v>
+      </c>
+      <c r="T11">
+        <v>0.006077514863552211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>38.06207066666666</v>
+      </c>
+      <c r="H12">
+        <v>114.186212</v>
+      </c>
+      <c r="I12">
+        <v>0.07093246885989114</v>
+      </c>
+      <c r="J12">
+        <v>0.07093246885989114</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5977846666666666</v>
+      </c>
+      <c r="N12">
+        <v>1.793354</v>
+      </c>
+      <c r="O12">
+        <v>0.0008156691696053909</v>
+      </c>
+      <c r="P12">
+        <v>0.000815669169605391</v>
+      </c>
+      <c r="Q12">
+        <v>22.75292222611644</v>
+      </c>
+      <c r="R12">
+        <v>204.776300035048</v>
+      </c>
+      <c r="S12">
+        <v>5.785742797300766E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.785742797300766E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>38.06207066666666</v>
+      </c>
+      <c r="H13">
+        <v>114.186212</v>
+      </c>
+      <c r="I13">
+        <v>0.07093246885989114</v>
+      </c>
+      <c r="J13">
+        <v>0.07093246885989114</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>179.453674</v>
+      </c>
+      <c r="N13">
+        <v>538.361022</v>
+      </c>
+      <c r="O13">
+        <v>0.2448621341701915</v>
+      </c>
+      <c r="P13">
+        <v>0.2448621341701916</v>
+      </c>
+      <c r="Q13">
+        <v>6830.378421180963</v>
+      </c>
+      <c r="R13">
+        <v>61473.40579062867</v>
+      </c>
+      <c r="S13">
+        <v>0.0173686757069936</v>
+      </c>
+      <c r="T13">
+        <v>0.0173686757069936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>30.9154777518954</v>
-      </c>
-      <c r="H9">
-        <v>30.9154777518954</v>
-      </c>
-      <c r="I9">
-        <v>0.5683500996365415</v>
-      </c>
-      <c r="J9">
-        <v>0.5683500996365415</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>177.807334527859</v>
-      </c>
-      <c r="N9">
-        <v>177.807334527859</v>
-      </c>
-      <c r="O9">
-        <v>0.5559578876198344</v>
-      </c>
-      <c r="P9">
-        <v>0.5559578876198344</v>
-      </c>
-      <c r="Q9">
-        <v>5496.998694719848</v>
-      </c>
-      <c r="R9">
-        <v>5496.998694719848</v>
-      </c>
-      <c r="S9">
-        <v>0.315978720822454</v>
-      </c>
-      <c r="T9">
-        <v>0.315978720822454</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1543923333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.463177</v>
+      </c>
+      <c r="I14">
+        <v>0.0002877255279220385</v>
+      </c>
+      <c r="J14">
+        <v>0.0002877255279220384</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>490.031855</v>
+      </c>
+      <c r="N14">
+        <v>1470.095565</v>
+      </c>
+      <c r="O14">
+        <v>0.6686419015677429</v>
+      </c>
+      <c r="P14">
+        <v>0.6686419015677431</v>
+      </c>
+      <c r="Q14">
+        <v>75.65716150111166</v>
+      </c>
+      <c r="R14">
+        <v>680.914453510005</v>
+      </c>
+      <c r="S14">
+        <v>0.0001923853441193745</v>
+      </c>
+      <c r="T14">
+        <v>0.0001923853441193745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1543923333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.463177</v>
+      </c>
+      <c r="I15">
+        <v>0.0002877255279220385</v>
+      </c>
+      <c r="J15">
+        <v>0.0002877255279220384</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>62.79306433333334</v>
+      </c>
+      <c r="N15">
+        <v>188.379193</v>
+      </c>
+      <c r="O15">
+        <v>0.0856802950924601</v>
+      </c>
+      <c r="P15">
+        <v>0.08568029509246011</v>
+      </c>
+      <c r="Q15">
+        <v>9.694767719573445</v>
+      </c>
+      <c r="R15">
+        <v>87.25290947616101</v>
+      </c>
+      <c r="S15">
+        <v>2.465240813799412E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.465240813799412E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1543923333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.463177</v>
+      </c>
+      <c r="I16">
+        <v>0.0002877255279220385</v>
+      </c>
+      <c r="J16">
+        <v>0.0002877255279220384</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5977846666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.793354</v>
+      </c>
+      <c r="O16">
+        <v>0.0008156691696053909</v>
+      </c>
+      <c r="P16">
+        <v>0.000815669169605391</v>
+      </c>
+      <c r="Q16">
+        <v>0.09229336951755554</v>
+      </c>
+      <c r="R16">
+        <v>0.8306403256579999</v>
+      </c>
+      <c r="S16">
+        <v>2.346888424344418E-07</v>
+      </c>
+      <c r="T16">
+        <v>2.346888424344418E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1543923333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.463177</v>
+      </c>
+      <c r="I17">
+        <v>0.0002877255279220385</v>
+      </c>
+      <c r="J17">
+        <v>0.0002877255279220384</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>179.453674</v>
+      </c>
+      <c r="N17">
+        <v>538.361022</v>
+      </c>
+      <c r="O17">
+        <v>0.2448621341701915</v>
+      </c>
+      <c r="P17">
+        <v>0.2448621341701916</v>
+      </c>
+      <c r="Q17">
+        <v>27.70627145409933</v>
+      </c>
+      <c r="R17">
+        <v>249.356443086894</v>
+      </c>
+      <c r="S17">
+        <v>7.045308682223537E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.045308682223537E-05</v>
       </c>
     </row>
   </sheetData>
